--- a/src/assets/cover.xlsx
+++ b/src/assets/cover.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kittinan-k\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\@Develop\RealibilityControl\frontend\reliability\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D94C99C2-C6B8-4662-B910-CB925DA6FE5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F42399-FDAD-497A-A71B-CB37D372A8FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{57F4A9EE-96EF-46A2-97B5-63B0774AFFA7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$AB$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$AB$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>Northern Region Industrial Estate : 86/1 Moo 4. Tanbol Banklang, Muang, Lamphun 51000, Thailand</t>
   </si>
@@ -533,7 +533,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,12 +545,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -560,12 +554,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -581,27 +569,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
@@ -741,75 +708,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -819,119 +723,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="3" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="4" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="6" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="7" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="2" borderId="8" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -957,35 +750,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -994,7 +763,112 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1006,16 +880,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1027,128 +931,199 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="9" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="2" borderId="11" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1177,13 +1152,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1786,80 +1761,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>55417</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>29855</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>54998</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>11</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0215B87D-89BA-45FB-BA10-C5299B69484E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="65891" t="10329" r="14909" b="88029"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8856517" y="182255"/>
-          <a:ext cx="2752306" cy="694056"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -1936,7 +1837,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1949,8 +1850,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="259774" y="363682"/>
-          <a:ext cx="4416136" cy="945613"/>
+          <a:off x="259774" y="358824"/>
+          <a:ext cx="4407477" cy="940123"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>534331</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335574</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>360090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B93D9E-E433-44C8-A846-726675AA21F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8165947" y="174236"/>
+          <a:ext cx="3123377" cy="696952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2259,10 +2210,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F00B13D-6237-4E3C-9DBF-3C35C25D9DC9}">
-  <dimension ref="A1:AF70"/>
+  <dimension ref="A1:AF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF14" sqref="AF14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2300,1704 +2251,2063 @@
       <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="8"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:28" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="13"/>
-      <c r="AB3" s="14"/>
+      <c r="A3" s="96"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="100"/>
+      <c r="Q3" s="100"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="9"/>
+      <c r="AB3" s="10"/>
     </row>
     <row r="4" spans="1:28" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="5" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="AB4" s="14"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="AB4" s="10"/>
     </row>
     <row r="5" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="19"/>
+      <c r="A5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149"/>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149"/>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149"/>
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="150"/>
     </row>
     <row r="6" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="22"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
+      <c r="AA6" s="152"/>
+      <c r="AB6" s="153"/>
     </row>
     <row r="7" spans="1:28" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:28" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="8"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:28" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="33" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB9" s="14"/>
+      <c r="AB9" s="10"/>
     </row>
     <row r="10" spans="1:28" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="33" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="AB10" s="14"/>
+      <c r="AB10" s="10"/>
     </row>
     <row r="11" spans="1:28" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39" t="s">
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="40"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="29"/>
     </row>
     <row r="12" spans="1:28" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="31"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="46" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="47"/>
-    </row>
-    <row r="14" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="36"/>
+    </row>
+    <row r="14" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="AB14" s="54"/>
-    </row>
-    <row r="15" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="AB14" s="43"/>
+    </row>
+    <row r="15" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="53" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AB15" s="54"/>
-    </row>
-    <row r="16" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="AB15" s="43"/>
+    </row>
+    <row r="16" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="53" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AB16" s="54"/>
-    </row>
-    <row r="17" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="AB16" s="43"/>
+    </row>
+    <row r="17" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="52"/>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="57" t="s">
+      <c r="J17" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="57"/>
-      <c r="P17" s="57" t="s">
+      <c r="N17" s="46"/>
+      <c r="P17" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="AB17" s="54"/>
-    </row>
-    <row r="18" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="57" t="s">
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="AB17" s="43"/>
+    </row>
+    <row r="18" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="57" t="s">
+      <c r="J18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="57"/>
-      <c r="P18" s="57" t="s">
+      <c r="N18" s="46"/>
+      <c r="P18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="AB18" s="54"/>
-    </row>
-    <row r="19" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="57" t="s">
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="AB18" s="43"/>
+    </row>
+    <row r="19" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="57" t="s">
+      <c r="J19" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="N19" s="57"/>
-      <c r="P19" s="57" t="s">
+      <c r="N19" s="46"/>
+      <c r="P19" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="AB19" s="54"/>
-    </row>
-    <row r="20" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="57" t="s">
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="AB19" s="43"/>
+    </row>
+    <row r="20" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="J20" s="53" t="s">
+      <c r="H20" s="41"/>
+      <c r="J20" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="48" t="s">
+      <c r="P20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="AB20" s="54"/>
-    </row>
-    <row r="21" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="52"/>
-      <c r="AB21" s="54"/>
-    </row>
-    <row r="22" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="AB20" s="43"/>
+    </row>
+    <row r="21" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="41"/>
+      <c r="AB21" s="43"/>
+    </row>
+    <row r="22" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="50" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="G22" s="53" t="s">
+      <c r="D22" s="40"/>
+      <c r="G22" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AB22" s="54"/>
-    </row>
-    <row r="23" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="52"/>
-      <c r="AB23" s="54"/>
-    </row>
-    <row r="24" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="52"/>
-      <c r="AB24" s="54"/>
-    </row>
-    <row r="25" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
+      <c r="AB22" s="43"/>
+    </row>
+    <row r="23" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="41"/>
+      <c r="AB23" s="43"/>
+    </row>
+    <row r="24" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="41"/>
+      <c r="AB24" s="43"/>
+    </row>
+    <row r="25" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="50" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="60"/>
-      <c r="L25" s="60"/>
-      <c r="M25" s="61"/>
-      <c r="AB25" s="54"/>
-    </row>
-    <row r="26" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="52"/>
-      <c r="AB26" s="54"/>
-    </row>
-    <row r="27" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="52"/>
-      <c r="AB27" s="54"/>
-    </row>
-    <row r="28" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="52"/>
-      <c r="AB28" s="54"/>
-    </row>
-    <row r="29" spans="1:28" s="48" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="50"/>
+      <c r="AB25" s="43"/>
+    </row>
+    <row r="26" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="41"/>
+      <c r="AB26" s="43"/>
+    </row>
+    <row r="27" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="41"/>
+      <c r="AB27" s="43"/>
+    </row>
+    <row r="28" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="41"/>
+      <c r="AB28" s="43"/>
+    </row>
+    <row r="29" spans="1:28" s="37" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="62"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="51"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="53" t="s">
+      <c r="G29" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AB29" s="54"/>
-    </row>
-    <row r="30" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="64"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="64"/>
-      <c r="U30" s="64"/>
-      <c r="V30" s="64"/>
-      <c r="W30" s="64"/>
-      <c r="X30" s="64"/>
-      <c r="Y30" s="64"/>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="64"/>
-      <c r="AB30" s="67"/>
-    </row>
-    <row r="31" spans="1:28" s="68" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="69"/>
-    </row>
-    <row r="32" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="AB29" s="43"/>
+    </row>
+    <row r="30" spans="1:28" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
+      <c r="R30" s="53"/>
+      <c r="S30" s="53"/>
+      <c r="T30" s="53"/>
+      <c r="U30" s="53"/>
+      <c r="V30" s="53"/>
+      <c r="W30" s="53"/>
+      <c r="X30" s="53"/>
+      <c r="Y30" s="53"/>
+      <c r="Z30" s="53"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="56"/>
+    </row>
+    <row r="31" spans="1:28" s="57" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="58"/>
+    </row>
+    <row r="32" spans="1:28" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43" t="s">
+      <c r="B32" s="31"/>
+      <c r="C32" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="42"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="42"/>
-      <c r="P32" s="42"/>
-      <c r="Q32" s="42"/>
-      <c r="R32" s="42"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
-      <c r="AB32" s="47"/>
-    </row>
-    <row r="33" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="70" t="s">
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="36"/>
+    </row>
+    <row r="33" spans="1:28" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="72" t="s">
+      <c r="C33" s="155"/>
+      <c r="D33" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="72" t="s">
+      <c r="E33" s="161"/>
+      <c r="F33" s="161"/>
+      <c r="G33" s="161"/>
+      <c r="H33" s="161"/>
+      <c r="I33" s="161"/>
+      <c r="J33" s="161"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="73"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="75" t="s">
+      <c r="M33" s="161"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="140" t="s">
         <v>41</v>
       </c>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="77"/>
-      <c r="W33" s="78" t="s">
+      <c r="P33" s="169"/>
+      <c r="Q33" s="169"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="169"/>
+      <c r="T33" s="169"/>
+      <c r="U33" s="169"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="80"/>
-    </row>
-    <row r="34" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="75" t="s">
+      <c r="X33" s="170"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="170"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="60"/>
+    </row>
+    <row r="34" spans="1:28" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="164"/>
+      <c r="F34" s="164"/>
+      <c r="G34" s="164"/>
+      <c r="H34" s="164"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="164"/>
+      <c r="K34" s="165"/>
+      <c r="L34" s="163"/>
+      <c r="M34" s="164"/>
+      <c r="N34" s="165"/>
+      <c r="O34" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="P34" s="77"/>
-      <c r="Q34" s="75" t="s">
+      <c r="P34" s="141"/>
+      <c r="Q34" s="140" t="s">
         <v>44</v>
       </c>
-      <c r="R34" s="77"/>
-      <c r="S34" s="75" t="s">
+      <c r="R34" s="141"/>
+      <c r="S34" s="140" t="s">
         <v>45</v>
       </c>
-      <c r="T34" s="77"/>
-      <c r="U34" s="75" t="s">
+      <c r="T34" s="141"/>
+      <c r="U34" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="V34" s="77"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="79"/>
-      <c r="AB34" s="80"/>
-    </row>
-    <row r="35" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="89"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="91" t="s">
+      <c r="V34" s="141"/>
+      <c r="W34" s="170"/>
+      <c r="X34" s="170"/>
+      <c r="Y34" s="170"/>
+      <c r="Z34" s="170"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="60"/>
+    </row>
+    <row r="35" spans="1:28" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="166"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="168"/>
+      <c r="L35" s="166"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="168"/>
+      <c r="O35" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="P35" s="92" t="s">
+      <c r="P35" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="Q35" s="92" t="s">
+      <c r="Q35" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="R35" s="92" t="s">
+      <c r="R35" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="S35" s="92" t="s">
+      <c r="S35" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="T35" s="92" t="s">
+      <c r="T35" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="U35" s="93" t="s">
+      <c r="U35" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="V35" s="93" t="s">
+      <c r="V35" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="W35" s="78"/>
-      <c r="X35" s="78"/>
-      <c r="Y35" s="78"/>
-      <c r="Z35" s="78"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="80"/>
-    </row>
-    <row r="36" spans="1:28" s="68" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="94" t="s">
+      <c r="W35" s="170"/>
+      <c r="X35" s="170"/>
+      <c r="Y35" s="170"/>
+      <c r="Z35" s="170"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="60"/>
+    </row>
+    <row r="36" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="175"/>
+      <c r="D36" s="171" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="98"/>
-      <c r="L36" s="96" t="s">
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="176"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="176"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="100"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
-      <c r="U36" s="101"/>
-      <c r="V36" s="102"/>
-      <c r="W36" s="103" t="s">
+      <c r="M36" s="176"/>
+      <c r="N36" s="177"/>
+      <c r="O36" s="173">
+        <v>1</v>
+      </c>
+      <c r="P36" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="173">
+        <v>3</v>
+      </c>
+      <c r="R36" s="173">
+        <v>4</v>
+      </c>
+      <c r="S36" s="173">
+        <v>5</v>
+      </c>
+      <c r="T36" s="173">
+        <v>6</v>
+      </c>
+      <c r="U36" s="173">
+        <v>7</v>
+      </c>
+      <c r="V36" s="173">
+        <v>8</v>
+      </c>
+      <c r="W36" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="X36" s="103"/>
-      <c r="Y36" s="103"/>
-      <c r="Z36" s="104"/>
-      <c r="AA36" s="105"/>
-      <c r="AB36" s="80"/>
-    </row>
-    <row r="37" spans="1:28" s="68" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="109"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="112"/>
-      <c r="N37" s="112"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="115"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="105"/>
-      <c r="AB37" s="80"/>
-    </row>
-    <row r="38" spans="1:28" s="68" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="111"/>
-      <c r="M38" s="112"/>
-      <c r="N38" s="112"/>
-      <c r="O38" s="113"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="115"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="116"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="105"/>
-      <c r="AB38" s="80"/>
-    </row>
-    <row r="39" spans="1:28" s="68" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="106"/>
-      <c r="C39" s="107"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="109"/>
-      <c r="F39" s="109"/>
-      <c r="G39" s="109"/>
-      <c r="H39" s="109"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="110"/>
-      <c r="L39" s="111"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="114"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="115"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="117"/>
-      <c r="AA39" s="105"/>
-      <c r="AB39" s="80"/>
-    </row>
-    <row r="40" spans="1:28" s="68" customFormat="1" ht="126.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="119"/>
-      <c r="D40" s="120"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="121"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="125"/>
-      <c r="P40" s="126"/>
-      <c r="Q40" s="126"/>
-      <c r="R40" s="126"/>
-      <c r="S40" s="126"/>
-      <c r="T40" s="126"/>
-      <c r="U40" s="126"/>
-      <c r="V40" s="127"/>
-      <c r="W40" s="128"/>
-      <c r="X40" s="128"/>
-      <c r="Y40" s="128"/>
-      <c r="Z40" s="129"/>
-      <c r="AA40" s="105"/>
-      <c r="AB40" s="80"/>
-    </row>
-    <row r="41" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="50"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
-      <c r="N41" s="133"/>
-      <c r="O41" s="133"/>
-      <c r="P41" s="133"/>
-      <c r="Q41" s="133"/>
-      <c r="R41" s="133"/>
-      <c r="S41" s="133"/>
-      <c r="T41" s="133"/>
-      <c r="U41" s="133"/>
-      <c r="V41" s="133"/>
-      <c r="W41" s="133"/>
-      <c r="X41" s="133"/>
-      <c r="Y41" s="133"/>
-      <c r="Z41" s="133"/>
-      <c r="AA41" s="133"/>
-      <c r="AB41" s="134"/>
-    </row>
-    <row r="42" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
-      <c r="O42" s="133"/>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="133"/>
-      <c r="R42" s="133"/>
-      <c r="S42" s="133"/>
-      <c r="T42" s="133"/>
-      <c r="U42" s="133"/>
-      <c r="V42" s="133"/>
-      <c r="W42" s="133"/>
-      <c r="X42" s="133"/>
-      <c r="Y42" s="133"/>
-      <c r="Z42" s="133"/>
-      <c r="AA42" s="133"/>
-      <c r="AB42" s="134"/>
-    </row>
-    <row r="43" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49" t="s">
+      <c r="X36" s="179"/>
+      <c r="Y36" s="179"/>
+      <c r="Z36" s="172"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="60"/>
+    </row>
+    <row r="37" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="175"/>
+      <c r="D37" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="176"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="176"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="176"/>
+      <c r="N37" s="177"/>
+      <c r="O37" s="173">
+        <v>1</v>
+      </c>
+      <c r="P37" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="173">
+        <v>3</v>
+      </c>
+      <c r="R37" s="173">
+        <v>4</v>
+      </c>
+      <c r="S37" s="173">
+        <v>5</v>
+      </c>
+      <c r="T37" s="173">
+        <v>6</v>
+      </c>
+      <c r="U37" s="173">
+        <v>7</v>
+      </c>
+      <c r="V37" s="173">
+        <v>8</v>
+      </c>
+      <c r="W37" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X37" s="179"/>
+      <c r="Y37" s="179"/>
+      <c r="Z37" s="172"/>
+      <c r="AA37" s="72"/>
+      <c r="AB37" s="60"/>
+    </row>
+    <row r="38" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="175"/>
+      <c r="D38" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="176"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="176"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M38" s="176"/>
+      <c r="N38" s="177"/>
+      <c r="O38" s="173">
+        <v>1</v>
+      </c>
+      <c r="P38" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="173">
+        <v>3</v>
+      </c>
+      <c r="R38" s="173">
+        <v>4</v>
+      </c>
+      <c r="S38" s="173">
+        <v>5</v>
+      </c>
+      <c r="T38" s="173">
+        <v>6</v>
+      </c>
+      <c r="U38" s="173">
+        <v>7</v>
+      </c>
+      <c r="V38" s="173">
+        <v>8</v>
+      </c>
+      <c r="W38" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X38" s="179"/>
+      <c r="Y38" s="179"/>
+      <c r="Z38" s="172"/>
+      <c r="AA38" s="72"/>
+      <c r="AB38" s="60"/>
+    </row>
+    <row r="39" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="175"/>
+      <c r="D39" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="176"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="176"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M39" s="176"/>
+      <c r="N39" s="177"/>
+      <c r="O39" s="173">
+        <v>1</v>
+      </c>
+      <c r="P39" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="173">
+        <v>3</v>
+      </c>
+      <c r="R39" s="173">
+        <v>4</v>
+      </c>
+      <c r="S39" s="173">
+        <v>5</v>
+      </c>
+      <c r="T39" s="173">
+        <v>6</v>
+      </c>
+      <c r="U39" s="173">
+        <v>7</v>
+      </c>
+      <c r="V39" s="173">
+        <v>8</v>
+      </c>
+      <c r="W39" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X39" s="179"/>
+      <c r="Y39" s="179"/>
+      <c r="Z39" s="172"/>
+      <c r="AA39" s="72"/>
+      <c r="AB39" s="60"/>
+    </row>
+    <row r="40" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="175"/>
+      <c r="D40" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="176"/>
+      <c r="H40" s="176"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="176"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M40" s="176"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="173">
+        <v>1</v>
+      </c>
+      <c r="P40" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="173">
+        <v>3</v>
+      </c>
+      <c r="R40" s="173">
+        <v>4</v>
+      </c>
+      <c r="S40" s="173">
+        <v>5</v>
+      </c>
+      <c r="T40" s="173">
+        <v>6</v>
+      </c>
+      <c r="U40" s="173">
+        <v>7</v>
+      </c>
+      <c r="V40" s="173">
+        <v>8</v>
+      </c>
+      <c r="W40" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X40" s="179"/>
+      <c r="Y40" s="179"/>
+      <c r="Z40" s="172"/>
+      <c r="AA40" s="72"/>
+      <c r="AB40" s="60"/>
+    </row>
+    <row r="41" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="175"/>
+      <c r="D41" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="176"/>
+      <c r="H41" s="176"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="176"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M41" s="176"/>
+      <c r="N41" s="177"/>
+      <c r="O41" s="173">
+        <v>1</v>
+      </c>
+      <c r="P41" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="173">
+        <v>3</v>
+      </c>
+      <c r="R41" s="173">
+        <v>4</v>
+      </c>
+      <c r="S41" s="173">
+        <v>5</v>
+      </c>
+      <c r="T41" s="173">
+        <v>6</v>
+      </c>
+      <c r="U41" s="173">
+        <v>7</v>
+      </c>
+      <c r="V41" s="173">
+        <v>8</v>
+      </c>
+      <c r="W41" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X41" s="179"/>
+      <c r="Y41" s="179"/>
+      <c r="Z41" s="172"/>
+      <c r="AA41" s="72"/>
+      <c r="AB41" s="60"/>
+    </row>
+    <row r="42" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="175"/>
+      <c r="D42" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="176"/>
+      <c r="H42" s="176"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="176"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M42" s="176"/>
+      <c r="N42" s="177"/>
+      <c r="O42" s="173">
+        <v>1</v>
+      </c>
+      <c r="P42" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="173">
+        <v>3</v>
+      </c>
+      <c r="R42" s="173">
+        <v>4</v>
+      </c>
+      <c r="S42" s="173">
+        <v>5</v>
+      </c>
+      <c r="T42" s="173">
+        <v>6</v>
+      </c>
+      <c r="U42" s="173">
+        <v>7</v>
+      </c>
+      <c r="V42" s="173">
+        <v>8</v>
+      </c>
+      <c r="W42" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X42" s="179"/>
+      <c r="Y42" s="179"/>
+      <c r="Z42" s="172"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="60"/>
+    </row>
+    <row r="43" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="175"/>
+      <c r="D43" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43" s="176"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="176"/>
+      <c r="H43" s="176"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="176"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M43" s="176"/>
+      <c r="N43" s="177"/>
+      <c r="O43" s="173">
+        <v>1</v>
+      </c>
+      <c r="P43" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="173">
+        <v>3</v>
+      </c>
+      <c r="R43" s="173">
+        <v>4</v>
+      </c>
+      <c r="S43" s="173">
+        <v>5</v>
+      </c>
+      <c r="T43" s="173">
+        <v>6</v>
+      </c>
+      <c r="U43" s="173">
+        <v>7</v>
+      </c>
+      <c r="V43" s="173">
+        <v>8</v>
+      </c>
+      <c r="W43" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X43" s="179"/>
+      <c r="Y43" s="179"/>
+      <c r="Z43" s="172"/>
+      <c r="AA43" s="72"/>
+      <c r="AB43" s="60"/>
+    </row>
+    <row r="44" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="175"/>
+      <c r="D44" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="176"/>
+      <c r="F44" s="176"/>
+      <c r="G44" s="176"/>
+      <c r="H44" s="176"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="176"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M44" s="176"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="173">
+        <v>1</v>
+      </c>
+      <c r="P44" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="173">
+        <v>3</v>
+      </c>
+      <c r="R44" s="173">
+        <v>4</v>
+      </c>
+      <c r="S44" s="173">
+        <v>5</v>
+      </c>
+      <c r="T44" s="173">
+        <v>6</v>
+      </c>
+      <c r="U44" s="173">
+        <v>7</v>
+      </c>
+      <c r="V44" s="173">
+        <v>8</v>
+      </c>
+      <c r="W44" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X44" s="179"/>
+      <c r="Y44" s="179"/>
+      <c r="Z44" s="172"/>
+      <c r="AA44" s="72"/>
+      <c r="AB44" s="60"/>
+    </row>
+    <row r="45" spans="1:28" s="57" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="175"/>
+      <c r="D45" s="171" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="176"/>
+      <c r="H45" s="176"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="176"/>
+      <c r="K45" s="177"/>
+      <c r="L45" s="171" t="s">
+        <v>51</v>
+      </c>
+      <c r="M45" s="176"/>
+      <c r="N45" s="177"/>
+      <c r="O45" s="173">
+        <v>1</v>
+      </c>
+      <c r="P45" s="173">
+        <v>2</v>
+      </c>
+      <c r="Q45" s="173">
+        <v>3</v>
+      </c>
+      <c r="R45" s="173">
+        <v>4</v>
+      </c>
+      <c r="S45" s="173">
+        <v>5</v>
+      </c>
+      <c r="T45" s="173">
+        <v>6</v>
+      </c>
+      <c r="U45" s="173">
+        <v>7</v>
+      </c>
+      <c r="V45" s="173">
+        <v>8</v>
+      </c>
+      <c r="W45" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="X45" s="179"/>
+      <c r="Y45" s="179"/>
+      <c r="Z45" s="172"/>
+      <c r="AA45" s="72"/>
+      <c r="AB45" s="60"/>
+    </row>
+    <row r="46" spans="1:28" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="69"/>
+    </row>
+    <row r="47" spans="1:28" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
+      <c r="T47" s="68"/>
+      <c r="U47" s="68"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
+      <c r="AA47" s="68"/>
+      <c r="AB47" s="69"/>
+    </row>
+    <row r="48" spans="1:28" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="50" t="s">
+      <c r="B48" s="37"/>
+      <c r="C48" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="136"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="136"/>
-      <c r="O43" s="136"/>
-      <c r="P43" s="136"/>
-      <c r="Q43" s="136"/>
-      <c r="R43" s="136"/>
-      <c r="S43" s="136"/>
-      <c r="T43" s="136"/>
-      <c r="U43" s="136"/>
-      <c r="V43" s="136"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="136"/>
-      <c r="Z43" s="136"/>
-      <c r="AA43" s="136"/>
-      <c r="AB43" s="134"/>
-    </row>
-    <row r="44" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="135"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="136"/>
-      <c r="M44" s="136"/>
-      <c r="N44" s="136"/>
-      <c r="O44" s="136"/>
-      <c r="P44" s="136"/>
-      <c r="Q44" s="136"/>
-      <c r="R44" s="136"/>
-      <c r="S44" s="136"/>
-      <c r="T44" s="136"/>
-      <c r="U44" s="136"/>
-      <c r="V44" s="136"/>
-      <c r="W44" s="136"/>
-      <c r="X44" s="136"/>
-      <c r="Y44" s="136"/>
-      <c r="Z44" s="136"/>
-      <c r="AA44" s="136"/>
-      <c r="AB44" s="134"/>
-    </row>
-    <row r="45" spans="1:28" s="68" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="135"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
-      <c r="O45" s="136"/>
-      <c r="P45" s="136"/>
-      <c r="Q45" s="136"/>
-      <c r="R45" s="136"/>
-      <c r="S45" s="136"/>
-      <c r="T45" s="136"/>
-      <c r="U45" s="136"/>
-      <c r="V45" s="136"/>
-      <c r="W45" s="136"/>
-      <c r="X45" s="136"/>
-      <c r="Y45" s="136"/>
-      <c r="Z45" s="136"/>
-      <c r="AA45" s="136"/>
-      <c r="AB45" s="134"/>
-    </row>
-    <row r="46" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="D48" s="70"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="71"/>
+      <c r="J48" s="71"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="71"/>
+      <c r="T48" s="71"/>
+      <c r="U48" s="71"/>
+      <c r="V48" s="71"/>
+      <c r="W48" s="71"/>
+      <c r="X48" s="71"/>
+      <c r="Y48" s="71"/>
+      <c r="Z48" s="71"/>
+      <c r="AA48" s="71"/>
+      <c r="AB48" s="69"/>
+    </row>
+    <row r="49" spans="1:32" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="71"/>
+      <c r="I49" s="71"/>
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="71"/>
+      <c r="T49" s="71"/>
+      <c r="U49" s="71"/>
+      <c r="V49" s="71"/>
+      <c r="W49" s="71"/>
+      <c r="X49" s="71"/>
+      <c r="Y49" s="71"/>
+      <c r="Z49" s="71"/>
+      <c r="AA49" s="71"/>
+      <c r="AB49" s="69"/>
+    </row>
+    <row r="50" spans="1:32" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="38"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="70"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="71"/>
+      <c r="T50" s="71"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="71"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="71"/>
+      <c r="Y50" s="71"/>
+      <c r="Z50" s="71"/>
+      <c r="AA50" s="71"/>
+      <c r="AB50" s="69"/>
+    </row>
+    <row r="51" spans="1:32" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="50" t="s">
+      <c r="B51" s="37"/>
+      <c r="C51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D46" s="62"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="136"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="136"/>
-      <c r="N46" s="136"/>
-      <c r="O46" s="136"/>
-      <c r="P46" s="136"/>
-      <c r="Q46" s="136"/>
-      <c r="R46" s="136"/>
-      <c r="S46" s="136"/>
-      <c r="T46" s="136"/>
-      <c r="U46" s="136"/>
-      <c r="V46" s="136"/>
-      <c r="W46" s="136"/>
-      <c r="X46" s="136"/>
-      <c r="Y46" s="136"/>
-      <c r="Z46" s="136"/>
-      <c r="AA46" s="136"/>
-      <c r="AB46" s="134"/>
-    </row>
-    <row r="47" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="137"/>
-      <c r="B47" s="138"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="138"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="139"/>
-      <c r="P47" s="139"/>
-      <c r="Q47" s="139"/>
-      <c r="R47" s="105"/>
-      <c r="S47" s="105"/>
-      <c r="T47" s="105"/>
-      <c r="U47" s="139"/>
-      <c r="V47" s="139"/>
-      <c r="W47" s="139"/>
-      <c r="X47" s="105"/>
-      <c r="Y47" s="139"/>
-      <c r="Z47" s="139"/>
-      <c r="AA47" s="139"/>
-      <c r="AB47" s="140"/>
-    </row>
-    <row r="48" spans="1:28" s="68" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="136"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="136"/>
-      <c r="N48" s="136"/>
-      <c r="O48" s="136"/>
-      <c r="P48" s="136"/>
-      <c r="Q48" s="136"/>
-      <c r="R48" s="136"/>
-      <c r="S48" s="136"/>
-      <c r="T48" s="136"/>
-      <c r="U48" s="136"/>
-      <c r="V48" s="136"/>
-      <c r="W48" s="136"/>
-      <c r="X48" s="136"/>
-      <c r="Y48" s="136"/>
-      <c r="Z48" s="136"/>
-      <c r="AA48" s="136"/>
-      <c r="AB48" s="134"/>
-    </row>
-    <row r="49" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="30" t="s">
+      <c r="D51" s="51"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="71"/>
+      <c r="AB51" s="69"/>
+    </row>
+    <row r="52" spans="1:32" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="122"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
+      <c r="N52" s="133"/>
+      <c r="O52" s="133"/>
+      <c r="P52" s="133"/>
+      <c r="Q52" s="133"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="133"/>
+      <c r="V52" s="133"/>
+      <c r="W52" s="133"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="133"/>
+      <c r="Z52" s="133"/>
+      <c r="AA52" s="133"/>
+      <c r="AB52" s="134"/>
+    </row>
+    <row r="53" spans="1:32" s="57" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="38"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="71"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="71"/>
+      <c r="Z53" s="71"/>
+      <c r="AA53" s="71"/>
+      <c r="AB53" s="69"/>
+    </row>
+    <row r="54" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="141"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="AB49" s="14"/>
-    </row>
-    <row r="50" spans="1:32" s="147" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="142" t="s">
+      <c r="C54" s="73"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="AB54" s="10"/>
+    </row>
+    <row r="55" spans="1:32" s="74" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="143" t="s">
+      <c r="B55" s="138"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="146" t="s">
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="139" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="146"/>
-      <c r="J50" s="146"/>
-      <c r="K50" s="143" t="s">
+      <c r="I55" s="139"/>
+      <c r="J55" s="139"/>
+      <c r="K55" s="109" t="s">
         <v>59</v>
       </c>
-      <c r="L50" s="144"/>
-      <c r="M50" s="145"/>
-      <c r="N50" s="146" t="s">
+      <c r="L55" s="110"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="O50" s="146"/>
-      <c r="P50" s="146"/>
-      <c r="Q50" s="146" t="s">
+      <c r="O55" s="139"/>
+      <c r="P55" s="139"/>
+      <c r="Q55" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="R50" s="146"/>
-      <c r="S50" s="146"/>
-      <c r="T50" s="143" t="s">
+      <c r="R55" s="139"/>
+      <c r="S55" s="139"/>
+      <c r="T55" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="U50" s="144"/>
-      <c r="V50" s="145"/>
-      <c r="W50" s="143" t="s">
+      <c r="U55" s="110"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="109" t="s">
         <v>63</v>
       </c>
-      <c r="X50" s="144"/>
-      <c r="Y50" s="145"/>
-      <c r="Z50" s="143" t="s">
+      <c r="X55" s="110"/>
+      <c r="Y55" s="111"/>
+      <c r="Z55" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="AA50" s="144"/>
-      <c r="AB50" s="145"/>
-      <c r="AC50" s="1"/>
-      <c r="AF50" s="148"/>
-    </row>
-    <row r="51" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="149" t="s">
+      <c r="AA55" s="110"/>
+      <c r="AB55" s="111"/>
+      <c r="AC55" s="1"/>
+      <c r="AF55" s="75"/>
+    </row>
+    <row r="56" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="149"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="150" t="s">
+      <c r="B56" s="186"/>
+      <c r="C56" s="187"/>
+      <c r="D56" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="150" t="s">
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="I51" s="153"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="155" t="s">
+      <c r="I56" s="113"/>
+      <c r="J56" s="114"/>
+      <c r="K56" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="L51" s="153"/>
-      <c r="M51" s="154"/>
-      <c r="N51" s="156" t="s">
+      <c r="L56" s="120"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="182" t="s">
         <v>68</v>
       </c>
-      <c r="O51" s="156"/>
-      <c r="P51" s="156"/>
-      <c r="Q51" s="155" t="s">
+      <c r="O56" s="130"/>
+      <c r="P56" s="131"/>
+      <c r="Q56" s="128" t="s">
         <v>69</v>
       </c>
-      <c r="R51" s="153"/>
-      <c r="S51" s="154"/>
-      <c r="T51" s="155" t="s">
+      <c r="R56" s="120"/>
+      <c r="S56" s="121"/>
+      <c r="T56" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="U51" s="153"/>
-      <c r="V51" s="154"/>
-      <c r="W51" s="157" t="s">
+      <c r="U56" s="120"/>
+      <c r="V56" s="121"/>
+      <c r="W56" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="X51" s="158"/>
-      <c r="Y51" s="159"/>
-      <c r="Z51" s="155" t="s">
+      <c r="X56" s="142"/>
+      <c r="Y56" s="143"/>
+      <c r="Z56" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="AA51" s="153"/>
-      <c r="AB51" s="154"/>
-      <c r="AF51" s="148"/>
-    </row>
-    <row r="52" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="149"/>
-      <c r="B52" s="149"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="162"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="163"/>
-      <c r="K52" s="137"/>
-      <c r="L52" s="138"/>
-      <c r="M52" s="163"/>
-      <c r="N52" s="156"/>
-      <c r="O52" s="156"/>
-      <c r="P52" s="156"/>
-      <c r="Q52" s="137"/>
-      <c r="R52" s="138"/>
-      <c r="S52" s="163"/>
-      <c r="T52" s="137"/>
-      <c r="U52" s="138"/>
-      <c r="V52" s="163"/>
-      <c r="W52" s="164"/>
-      <c r="X52" s="139"/>
-      <c r="Y52" s="140"/>
-      <c r="Z52" s="137"/>
-      <c r="AA52" s="138"/>
-      <c r="AB52" s="163"/>
-      <c r="AF52" s="148"/>
-    </row>
-    <row r="53" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="149"/>
-      <c r="B53" s="149"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="168"/>
-      <c r="I53" s="169"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="168"/>
-      <c r="L53" s="169"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="156"/>
-      <c r="O53" s="156"/>
-      <c r="P53" s="156"/>
-      <c r="Q53" s="168"/>
-      <c r="R53" s="169"/>
-      <c r="S53" s="170"/>
-      <c r="T53" s="168"/>
-      <c r="U53" s="169"/>
-      <c r="V53" s="170"/>
-      <c r="W53" s="171"/>
-      <c r="X53" s="172"/>
-      <c r="Y53" s="173"/>
-      <c r="Z53" s="168"/>
-      <c r="AA53" s="169"/>
-      <c r="AB53" s="170"/>
-      <c r="AF53" s="148"/>
-    </row>
-    <row r="54" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="174" t="s">
+      <c r="AA56" s="120"/>
+      <c r="AB56" s="121"/>
+      <c r="AF56" s="75"/>
+    </row>
+    <row r="57" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="188"/>
+      <c r="B57" s="189"/>
+      <c r="C57" s="190"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="184"/>
+      <c r="F57" s="184"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="184"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="180"/>
+      <c r="M57" s="124"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="183"/>
+      <c r="P57" s="134"/>
+      <c r="Q57" s="122"/>
+      <c r="R57" s="180"/>
+      <c r="S57" s="124"/>
+      <c r="T57" s="122"/>
+      <c r="U57" s="180"/>
+      <c r="V57" s="124"/>
+      <c r="W57" s="144"/>
+      <c r="X57" s="181"/>
+      <c r="Y57" s="145"/>
+      <c r="Z57" s="122"/>
+      <c r="AA57" s="180"/>
+      <c r="AB57" s="124"/>
+      <c r="AF57" s="75"/>
+    </row>
+    <row r="58" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="191"/>
+      <c r="B58" s="192"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="119"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="135"/>
+      <c r="O58" s="136"/>
+      <c r="P58" s="137"/>
+      <c r="Q58" s="125"/>
+      <c r="R58" s="126"/>
+      <c r="S58" s="127"/>
+      <c r="T58" s="125"/>
+      <c r="U58" s="126"/>
+      <c r="V58" s="127"/>
+      <c r="W58" s="146"/>
+      <c r="X58" s="147"/>
+      <c r="Y58" s="148"/>
+      <c r="Z58" s="125"/>
+      <c r="AA58" s="126"/>
+      <c r="AB58" s="127"/>
+      <c r="AF58" s="75"/>
+    </row>
+    <row r="59" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="175"/>
-      <c r="C54" s="176" t="s">
+      <c r="B59" s="77"/>
+      <c r="C59" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="177" t="s">
+      <c r="D59" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E54" s="175"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="178"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="178"/>
-      <c r="O54" s="178"/>
-      <c r="P54" s="178"/>
-      <c r="Q54" s="178"/>
-      <c r="R54" s="178"/>
-      <c r="S54" s="178"/>
-      <c r="T54" s="178"/>
-      <c r="U54" s="178"/>
-      <c r="V54" s="178"/>
-      <c r="W54" s="178"/>
-      <c r="X54" s="178"/>
-      <c r="Y54" s="178"/>
-      <c r="Z54" s="178"/>
-      <c r="AA54" s="178"/>
-      <c r="AB54" s="179"/>
-      <c r="AF54" s="148"/>
-    </row>
-    <row r="55" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="174" t="s">
+      <c r="E59" s="77"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="80"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="80"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="80"/>
+      <c r="V59" s="80"/>
+      <c r="W59" s="80"/>
+      <c r="X59" s="80"/>
+      <c r="Y59" s="80"/>
+      <c r="Z59" s="80"/>
+      <c r="AA59" s="80"/>
+      <c r="AB59" s="81"/>
+      <c r="AF59" s="75"/>
+    </row>
+    <row r="60" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="175"/>
-      <c r="C55" s="176" t="s">
+      <c r="B60" s="77"/>
+      <c r="C60" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="180"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="180"/>
-      <c r="G55" s="175"/>
-      <c r="H55" s="175"/>
-      <c r="I55" s="175"/>
-      <c r="J55" s="175"/>
-      <c r="K55" s="175"/>
-      <c r="L55" s="175"/>
-      <c r="M55" s="175"/>
-      <c r="N55" s="175"/>
-      <c r="O55" s="175"/>
-      <c r="P55" s="175"/>
-      <c r="Q55" s="178"/>
-      <c r="R55" s="178"/>
-      <c r="S55" s="178"/>
-      <c r="T55" s="178"/>
-      <c r="U55" s="175"/>
-      <c r="V55" s="175"/>
-      <c r="W55" s="178"/>
-      <c r="X55" s="178"/>
-      <c r="Y55" s="178"/>
-      <c r="Z55" s="178"/>
-      <c r="AA55" s="178"/>
-      <c r="AB55" s="179"/>
-      <c r="AF55" s="148"/>
-    </row>
-    <row r="56" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
-      <c r="E56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AF56" s="148"/>
-    </row>
-    <row r="57" spans="1:32" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="181" t="s">
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="77"/>
+      <c r="N60" s="77"/>
+      <c r="O60" s="77"/>
+      <c r="P60" s="77"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="77"/>
+      <c r="V60" s="77"/>
+      <c r="W60" s="80"/>
+      <c r="X60" s="80"/>
+      <c r="Y60" s="80"/>
+      <c r="Z60" s="80"/>
+      <c r="AA60" s="80"/>
+      <c r="AB60" s="81"/>
+      <c r="AF60" s="75"/>
+    </row>
+    <row r="61" spans="1:32" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="2"/>
+      <c r="E61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AF61" s="75"/>
+    </row>
+    <row r="62" spans="1:32" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="182"/>
-      <c r="C57" s="182"/>
-      <c r="D57" s="182"/>
-      <c r="E57" s="182"/>
-      <c r="F57" s="182"/>
-      <c r="G57" s="182"/>
-      <c r="H57" s="182"/>
-      <c r="I57" s="182"/>
-      <c r="J57" s="182"/>
-      <c r="K57" s="182"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="182"/>
-      <c r="N57" s="182"/>
-      <c r="O57" s="182"/>
-      <c r="P57" s="182"/>
-      <c r="Q57" s="182"/>
-      <c r="R57" s="182"/>
-      <c r="S57" s="182"/>
-      <c r="T57" s="182"/>
-      <c r="U57" s="182"/>
-      <c r="V57" s="182"/>
-      <c r="W57" s="182"/>
-      <c r="X57" s="182"/>
-      <c r="Y57" s="182"/>
-      <c r="Z57" s="182"/>
-      <c r="AA57" s="182"/>
-      <c r="AB57" s="183"/>
-      <c r="AF57" s="148" t="s">
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="104"/>
+      <c r="M62" s="104"/>
+      <c r="N62" s="104"/>
+      <c r="O62" s="104"/>
+      <c r="P62" s="104"/>
+      <c r="Q62" s="104"/>
+      <c r="R62" s="104"/>
+      <c r="S62" s="104"/>
+      <c r="T62" s="104"/>
+      <c r="U62" s="104"/>
+      <c r="V62" s="104"/>
+      <c r="W62" s="104"/>
+      <c r="X62" s="104"/>
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="104"/>
+      <c r="AB62" s="105"/>
+      <c r="AF62" s="75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:32" s="147" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="184" t="s">
+    <row r="63" spans="1:32" s="74" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B58" s="185"/>
-      <c r="C58" s="185"/>
-      <c r="D58" s="185"/>
-      <c r="E58" s="186"/>
-      <c r="F58" s="184" t="s">
+      <c r="B63" s="107"/>
+      <c r="C63" s="107"/>
+      <c r="D63" s="107"/>
+      <c r="E63" s="108"/>
+      <c r="F63" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="G58" s="185"/>
-      <c r="H58" s="185"/>
-      <c r="I58" s="185"/>
-      <c r="J58" s="185"/>
-      <c r="K58" s="186"/>
-      <c r="L58" s="184" t="s">
+      <c r="G63" s="107"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
+      <c r="J63" s="107"/>
+      <c r="K63" s="108"/>
+      <c r="L63" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="M58" s="185"/>
-      <c r="N58" s="185"/>
-      <c r="O58" s="185"/>
-      <c r="P58" s="186"/>
-      <c r="Q58" s="4" t="s">
+      <c r="M63" s="107"/>
+      <c r="N63" s="107"/>
+      <c r="O63" s="107"/>
+      <c r="P63" s="108"/>
+      <c r="Q63" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="187"/>
-      <c r="V58" s="184" t="s">
+      <c r="R63" s="94"/>
+      <c r="S63" s="94"/>
+      <c r="T63" s="94"/>
+      <c r="U63" s="95"/>
+      <c r="V63" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="W58" s="185"/>
-      <c r="X58" s="185"/>
-      <c r="Y58" s="185"/>
-      <c r="Z58" s="185"/>
-      <c r="AA58" s="185"/>
-      <c r="AB58" s="186"/>
-      <c r="AF58" s="148"/>
-    </row>
-    <row r="59" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="188"/>
-      <c r="B59" s="189"/>
-      <c r="C59" s="189"/>
-      <c r="D59" s="189"/>
-      <c r="E59" s="190"/>
-      <c r="F59" s="188"/>
-      <c r="G59" s="189"/>
-      <c r="H59" s="189"/>
-      <c r="I59" s="189"/>
-      <c r="J59" s="189"/>
-      <c r="K59" s="190"/>
-      <c r="L59" s="189"/>
-      <c r="M59" s="189"/>
-      <c r="N59" s="189"/>
-      <c r="O59" s="189"/>
-      <c r="P59" s="190"/>
-      <c r="Q59" s="191"/>
-      <c r="R59" s="191"/>
-      <c r="S59" s="191"/>
-      <c r="T59" s="191"/>
-      <c r="U59" s="191"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="187"/>
-      <c r="AF59" s="148"/>
-    </row>
-    <row r="60" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="192"/>
-      <c r="B60" s="193"/>
-      <c r="C60" s="193"/>
-      <c r="D60" s="193"/>
-      <c r="E60" s="194"/>
-      <c r="F60" s="192"/>
-      <c r="G60" s="193"/>
-      <c r="H60" s="193"/>
-      <c r="I60" s="193"/>
-      <c r="J60" s="193"/>
-      <c r="K60" s="194"/>
-      <c r="L60" s="193"/>
-      <c r="M60" s="193"/>
-      <c r="N60" s="193"/>
-      <c r="O60" s="193"/>
-      <c r="P60" s="194"/>
-      <c r="Q60" s="191"/>
-      <c r="R60" s="191"/>
-      <c r="S60" s="191"/>
-      <c r="T60" s="191"/>
-      <c r="U60" s="191"/>
-      <c r="V60" s="9"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
-      <c r="Z60" s="10"/>
-      <c r="AA60" s="10"/>
-      <c r="AB60" s="195"/>
-      <c r="AF60" s="148"/>
-    </row>
-    <row r="61" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="192"/>
-      <c r="B61" s="193"/>
-      <c r="C61" s="193"/>
-      <c r="D61" s="193"/>
-      <c r="E61" s="194"/>
-      <c r="F61" s="192"/>
-      <c r="G61" s="193"/>
-      <c r="H61" s="193"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="194"/>
-      <c r="L61" s="193"/>
-      <c r="M61" s="193"/>
-      <c r="N61" s="193"/>
-      <c r="O61" s="193"/>
-      <c r="P61" s="194"/>
-      <c r="Q61" s="191"/>
-      <c r="R61" s="191"/>
-      <c r="S61" s="191"/>
-      <c r="T61" s="191"/>
-      <c r="U61" s="191"/>
-      <c r="V61" s="9"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
-      <c r="Z61" s="10"/>
-      <c r="AA61" s="10"/>
-      <c r="AB61" s="195"/>
-      <c r="AF61" s="148"/>
-    </row>
-    <row r="62" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="196"/>
-      <c r="B62" s="197"/>
-      <c r="C62" s="197"/>
-      <c r="D62" s="197"/>
-      <c r="E62" s="198"/>
-      <c r="F62" s="196"/>
-      <c r="G62" s="197"/>
-      <c r="H62" s="197"/>
-      <c r="I62" s="197"/>
-      <c r="J62" s="197"/>
-      <c r="K62" s="198"/>
-      <c r="L62" s="197"/>
-      <c r="M62" s="197"/>
-      <c r="N62" s="197"/>
-      <c r="O62" s="197"/>
-      <c r="P62" s="198"/>
-      <c r="Q62" s="191"/>
-      <c r="R62" s="191"/>
-      <c r="S62" s="191"/>
-      <c r="T62" s="191"/>
-      <c r="U62" s="191"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="17"/>
-      <c r="X62" s="17"/>
-      <c r="Y62" s="17"/>
-      <c r="Z62" s="17"/>
-      <c r="AA62" s="17"/>
-      <c r="AB62" s="199"/>
-      <c r="AF62" s="148"/>
-    </row>
-    <row r="63" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
-      <c r="E63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AF63" s="148"/>
-    </row>
-    <row r="64" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB64" s="200"/>
-      <c r="AF64" s="148"/>
-    </row>
-    <row r="65" spans="32:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF65" s="148"/>
-    </row>
-    <row r="66" spans="32:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF66" s="148"/>
-    </row>
-    <row r="67" spans="32:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF67" s="148"/>
-    </row>
-    <row r="68" spans="32:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF68" s="148"/>
-    </row>
-    <row r="69" spans="32:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF69" s="148"/>
-    </row>
-    <row r="70" spans="32:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AF70" s="148"/>
+      <c r="W63" s="107"/>
+      <c r="X63" s="107"/>
+      <c r="Y63" s="107"/>
+      <c r="Z63" s="107"/>
+      <c r="AA63" s="107"/>
+      <c r="AB63" s="108"/>
+      <c r="AF63" s="75"/>
+    </row>
+    <row r="64" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="83"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="83"/>
+      <c r="G64" s="84"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="85"/>
+      <c r="Q64" s="92"/>
+      <c r="R64" s="92"/>
+      <c r="S64" s="92"/>
+      <c r="T64" s="92"/>
+      <c r="U64" s="92"/>
+      <c r="V64" s="93"/>
+      <c r="W64" s="94"/>
+      <c r="X64" s="94"/>
+      <c r="Y64" s="94"/>
+      <c r="Z64" s="94"/>
+      <c r="AA64" s="94"/>
+      <c r="AB64" s="95"/>
+      <c r="AF64" s="75"/>
+    </row>
+    <row r="65" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="86"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
+      <c r="I65" s="87"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="87"/>
+      <c r="O65" s="87"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="92"/>
+      <c r="R65" s="92"/>
+      <c r="S65" s="92"/>
+      <c r="T65" s="92"/>
+      <c r="U65" s="92"/>
+      <c r="V65" s="96"/>
+      <c r="W65" s="97"/>
+      <c r="X65" s="97"/>
+      <c r="Y65" s="97"/>
+      <c r="Z65" s="97"/>
+      <c r="AA65" s="97"/>
+      <c r="AB65" s="98"/>
+      <c r="AF65" s="75"/>
+    </row>
+    <row r="66" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="86"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="87"/>
+      <c r="N66" s="87"/>
+      <c r="O66" s="87"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="92"/>
+      <c r="R66" s="92"/>
+      <c r="S66" s="92"/>
+      <c r="T66" s="92"/>
+      <c r="U66" s="92"/>
+      <c r="V66" s="96"/>
+      <c r="W66" s="97"/>
+      <c r="X66" s="97"/>
+      <c r="Y66" s="97"/>
+      <c r="Z66" s="97"/>
+      <c r="AA66" s="97"/>
+      <c r="AB66" s="98"/>
+      <c r="AF66" s="75"/>
+    </row>
+    <row r="67" spans="1:32" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="89"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="90"/>
+      <c r="E67" s="91"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="90"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="91"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="90"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="91"/>
+      <c r="Q67" s="92"/>
+      <c r="R67" s="92"/>
+      <c r="S67" s="92"/>
+      <c r="T67" s="92"/>
+      <c r="U67" s="92"/>
+      <c r="V67" s="99"/>
+      <c r="W67" s="100"/>
+      <c r="X67" s="100"/>
+      <c r="Y67" s="100"/>
+      <c r="Z67" s="100"/>
+      <c r="AA67" s="100"/>
+      <c r="AB67" s="101"/>
+      <c r="AF67" s="75"/>
+    </row>
+    <row r="68" spans="1:32" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="2"/>
+      <c r="E68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AF68" s="75"/>
+    </row>
+    <row r="69" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB69" s="82"/>
+      <c r="AF69" s="75"/>
+    </row>
+    <row r="70" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF70" s="75"/>
+    </row>
+    <row r="71" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF71" s="75"/>
+    </row>
+    <row r="72" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF72" s="75"/>
+    </row>
+    <row r="73" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF73" s="75"/>
+    </row>
+    <row r="74" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF74" s="75"/>
+    </row>
+    <row r="75" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF75" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A59:E62"/>
-    <mergeCell ref="F59:K62"/>
-    <mergeCell ref="L59:P62"/>
-    <mergeCell ref="Q59:U62"/>
-    <mergeCell ref="V59:AB62"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A57:AB57"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="F58:K58"/>
-    <mergeCell ref="L58:P58"/>
-    <mergeCell ref="Q58:U58"/>
-    <mergeCell ref="V58:AB58"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="A51:C53"/>
-    <mergeCell ref="D51:G53"/>
-    <mergeCell ref="H51:J53"/>
-    <mergeCell ref="K51:M53"/>
-    <mergeCell ref="N51:P53"/>
-    <mergeCell ref="Q51:S53"/>
-    <mergeCell ref="T51:V53"/>
-    <mergeCell ref="W51:Y53"/>
-    <mergeCell ref="Z51:AB53"/>
-    <mergeCell ref="Y47:Z47"/>
-    <mergeCell ref="AA47:AB47"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:P50"/>
-    <mergeCell ref="Q50:S50"/>
-    <mergeCell ref="T50:V50"/>
-    <mergeCell ref="W50:Y50"/>
-    <mergeCell ref="W36:Z40"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="U47:W47"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="B36:C40"/>
-    <mergeCell ref="D36:K40"/>
-    <mergeCell ref="L36:N40"/>
-    <mergeCell ref="O36:V40"/>
+  <mergeCells count="95">
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="W44:Z44"/>
+    <mergeCell ref="L2:Q3"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="W37:Z37"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="W43:Z43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="W42:Z42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="W40:Z40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="W36:Z36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="W39:Z39"/>
     <mergeCell ref="A2:C5"/>
     <mergeCell ref="F4:W4"/>
     <mergeCell ref="D5:AB5"/>
@@ -4008,6 +4318,65 @@
     <mergeCell ref="O33:V33"/>
     <mergeCell ref="W33:Z35"/>
     <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="W45:Z45"/>
+    <mergeCell ref="W41:Z41"/>
+    <mergeCell ref="W38:Z38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="Y52:Z52"/>
+    <mergeCell ref="AA52:AB52"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="T55:V55"/>
+    <mergeCell ref="W55:Y55"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="A56:C58"/>
+    <mergeCell ref="D56:G58"/>
+    <mergeCell ref="H56:J58"/>
+    <mergeCell ref="K56:M58"/>
+    <mergeCell ref="N56:P58"/>
+    <mergeCell ref="Q56:S58"/>
+    <mergeCell ref="T56:V58"/>
+    <mergeCell ref="W56:Y58"/>
+    <mergeCell ref="Z56:AB58"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A62:AB62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="L63:P63"/>
+    <mergeCell ref="Q63:U63"/>
+    <mergeCell ref="V63:AB63"/>
+    <mergeCell ref="A64:E67"/>
+    <mergeCell ref="F64:K67"/>
+    <mergeCell ref="L64:P67"/>
+    <mergeCell ref="Q64:U67"/>
+    <mergeCell ref="V64:AB67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="24" orientation="portrait" r:id="rId1"/>
